--- a/biology/Zoologie/Cicadellidae/Cicadellidae.xlsx
+++ b/biology/Zoologie/Cicadellidae/Cicadellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cicadellidae, communément appelés cicadelles, forment une famille d'insectes hémiptères, (selon les normes taxonomiques récentes, du sous-ordre des Auchenorrhyncha), sauteurs et piqueurs qui se nourrissent de la sève des végétaux grâce à leur rostre.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon BioLib                    (8 nov. 2013.)[1] :
+          <t xml:space="preserve">Selon BioLib                    (8 nov. 2013.) :
 Agalliinae
 Aphrodinae
 Arrugadiinae Linnavuori, 1965
@@ -575,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
-          <t>Selon Catalogue of Life                                   (22 mai 2014.)[2] :
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 mai 2014.) :
 genre Aaka
 genre Abana
 genre Abimwa
@@ -2583,7 +2599,8 @@
 genre Sichaea
 genre Sicistella
 genre Sidelloides
-genre Siderojass</t>
+genre Siderojassus
+</t>
         </is>
       </c>
     </row>
@@ -2611,9 +2628,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon NCBI  (22 mai 2014.)[4] :
+          <t xml:space="preserve">Selon NCBI  (22 mai 2014.) :
 sous-famille Acostemminae
 genre Acostemma
 genre Eryapus
@@ -3503,7 +3522,7 @@
 Xestocephalus desertorum
 Xestocephalus japonicus
 non-classé Cicadellidae incertae sedis
-Selon Paleobiology Database                   (22 mai 2014.)[5] :
+Selon Paleobiology Database                   (22 mai 2014.) :
 genre Agallia
 sous-famille Cicadellinae
 genre Cicadellites
